--- a/regions/12/garemos dacva/garemos dacva.xlsx
+++ b/regions/12/garemos dacva/garemos dacva.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="შიდა ქართლი" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>მათ შორის:</t>
   </si>
@@ -68,6 +68,18 @@
     <t>დაჭერილი (ათასი ტონა)</t>
   </si>
   <si>
+    <t>ტყის ჭრით მიღებული ხე-ტყის მოცულობა* (კუბური მეტრი)</t>
+  </si>
+  <si>
+    <t>ტყის უკანონო ჭრა* (კუბური მეტრი)</t>
+  </si>
+  <si>
+    <t>* ცხრილი არ მოიცავს დაცული ტერიტორიების ტყის ფონდს.</t>
+  </si>
+  <si>
+    <t>პირობითი აღნიშვნები:</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">ტყის ფონდის ფართობი* - </t>
     </r>
@@ -79,7 +91,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>237</t>
+      <t>284</t>
     </r>
     <r>
       <rPr>
@@ -93,18 +105,6 @@
     </r>
   </si>
   <si>
-    <t>ტყის ჭრით მიღებული ხე-ტყის მოცულობა* (კუბური მეტრი)</t>
-  </si>
-  <si>
-    <t>ტყის უკანონო ჭრა* (კუბური მეტრი)</t>
-  </si>
-  <si>
-    <t>* ცხრილი არ მოიცავს დაცული ტერიტორიების ტყის ფონდს.</t>
-  </si>
-  <si>
-    <t>პირობითი აღნიშვნები:</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">  აქედან, ტყით დაფარული ფართობი* -</t>
     </r>
@@ -116,7 +116,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 214</t>
+      <t xml:space="preserve"> 274</t>
     </r>
     <r>
       <rPr>
@@ -275,7 +275,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -297,38 +296,39 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,149 +648,174 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14">
+        <v>2013</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2014</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2015</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2016</v>
+      </c>
+      <c r="F5" s="14">
+        <v>2017</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2018</v>
+      </c>
+      <c r="H5" s="14">
+        <v>2019</v>
+      </c>
+      <c r="I5" s="14">
+        <v>2020</v>
+      </c>
+      <c r="J5" s="14">
+        <v>2021</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="12">
-        <v>2013</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2014</v>
-      </c>
-      <c r="D5" s="12">
-        <v>2015</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2016</v>
-      </c>
-      <c r="F5" s="12">
-        <v>2017</v>
-      </c>
-      <c r="G5" s="12">
-        <v>2018</v>
-      </c>
-      <c r="H5" s="12">
-        <v>2019</v>
-      </c>
-      <c r="I5" s="12">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="7">
+        <v>85883</v>
+      </c>
+      <c r="C6" s="7">
+        <v>66871</v>
+      </c>
+      <c r="D6" s="7">
+        <v>76661</v>
+      </c>
+      <c r="E6" s="7">
+        <v>71284</v>
+      </c>
+      <c r="F6" s="7">
+        <v>58267</v>
+      </c>
+      <c r="G6" s="7">
+        <v>58257</v>
+      </c>
+      <c r="H6" s="7">
+        <v>41287.699999999997</v>
+      </c>
+      <c r="I6" s="7">
+        <v>49948</v>
+      </c>
+      <c r="J6" s="7">
+        <v>44304</v>
+      </c>
+      <c r="K6" s="7">
+        <v>55357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8">
-        <v>85883</v>
-      </c>
-      <c r="C6" s="8">
-        <v>66871</v>
-      </c>
-      <c r="D6" s="8">
-        <v>76661</v>
-      </c>
-      <c r="E6" s="8">
-        <v>71284</v>
-      </c>
-      <c r="F6" s="8">
-        <v>58267</v>
-      </c>
-      <c r="G6" s="8">
-        <v>58257</v>
-      </c>
-      <c r="H6" s="8">
-        <v>41287.699999999997</v>
-      </c>
-      <c r="I6" s="8">
-        <v>49948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>188</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>1596</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>1581</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>845</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>1975</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>1632</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>13669.5</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>1841</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="J7" s="7">
+        <v>425.8</v>
+      </c>
+      <c r="K7" s="7">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="8">
@@ -811,203 +836,253 @@
       <c r="I8" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="J8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="8">
         <v>10</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>3</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="I9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="8">
         <v>3</v>
       </c>
-      <c r="B10" s="10">
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
         <v>311.3</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>366.3</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>289</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>276.60000000000002</v>
       </c>
-      <c r="F10" s="10">
-        <v>288.5</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10" s="9">
+        <v>289.39999999999998</v>
+      </c>
+      <c r="G10" s="9">
         <v>277.10000000000002</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>527.20000000000005</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>587.20000000000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="J10" s="9">
+        <v>580.20000000000005</v>
+      </c>
+      <c r="K10" s="9">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>304.2</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>358.8</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>281.39999999999998</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>268.89999999999998</v>
       </c>
-      <c r="F12" s="10">
-        <v>281.39999999999998</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="F12" s="9">
+        <v>282.10000000000002</v>
+      </c>
+      <c r="G12" s="9">
         <v>270</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>521.79999999999995</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>580.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="J12" s="9">
+        <v>577.6</v>
+      </c>
+      <c r="K12" s="9">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>7.1</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>7.5</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>7.6</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>7.7</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="G13" s="10">
         <v>7.1</v>
       </c>
-      <c r="G13" s="11">
-        <v>7.1</v>
-      </c>
-      <c r="H13" s="11">
-        <v>5.3</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="H13" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="I13" s="10">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="J13" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="K13" s="10">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="1"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/regions/12/garemos dacva/garemos dacva.xlsx
+++ b/regions/12/garemos dacva/garemos dacva.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="შიდა ქართლი" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>მათ შორის:</t>
   </si>
@@ -309,8 +309,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -321,13 +324,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,34 +648,37 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>15</v>
       </c>
@@ -689,23 +692,25 @@
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="14">
         <v>2013</v>
@@ -737,8 +742,11 @@
       <c r="K5" s="14">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -772,8 +780,11 @@
       <c r="K6" s="7">
         <v>55357</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="7">
+        <v>41745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -807,8 +818,11 @@
       <c r="K7" s="7">
         <v>644</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="7">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -842,8 +856,11 @@
       <c r="K8" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -877,8 +894,11 @@
       <c r="K9" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -910,10 +930,13 @@
         <v>580.20000000000005</v>
       </c>
       <c r="K10" s="9">
-        <v>102.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111.6</v>
+      </c>
+      <c r="L10" s="9">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
@@ -927,7 +950,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -956,13 +979,16 @@
         <v>580.9</v>
       </c>
       <c r="J12" s="9">
-        <v>577.6</v>
+        <v>574.20000000000005</v>
       </c>
       <c r="K12" s="9">
-        <v>97.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104.6</v>
+      </c>
+      <c r="L12" s="9">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -991,58 +1017,64 @@
         <v>6.3</v>
       </c>
       <c r="J13" s="10">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="K13" s="10">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+        <v>6.9</v>
+      </c>
+      <c r="L13" s="10">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1056,8 +1088,9 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
@@ -1071,18 +1104,19 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
